--- a/编码/扑克映射.xlsx
+++ b/编码/扑克映射.xlsx
@@ -52,18 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鸭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>家人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,18 +108,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三胖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>希特勒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>墨索里尼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东条英机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈慧琳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,14 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,18 +176,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>巴菲特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>马云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>洪七公</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,58 +212,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>义工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欧元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人民币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸟类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸梅汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>四方山</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,6 +229,94 @@
   </si>
   <si>
     <t>山洪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红孩儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崽崽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书(梅花三弄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈浩南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金三胖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑石乐队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红十字会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周黑鸭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章鱼小八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大伯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘文雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +334,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -360,9 +375,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -672,10 +693,14 @@
   <dimension ref="A2:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.36328125" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -725,43 +750,43 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="O3" s="1"/>
     </row>
@@ -769,138 +794,138 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>63</v>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>21</v>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>44</v>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>22</v>
+        <v>67</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>65</v>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="O6" s="1"/>
     </row>
@@ -908,44 +933,44 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="O7" s="1"/>
     </row>

--- a/编码/扑克映射.xlsx
+++ b/编码/扑克映射.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -60,18 +61,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发财</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>医生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>朋友</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,14 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>广州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>老婆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,23 +153,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>马云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪七公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七个小矮人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃谷六仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外婆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舅妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>义工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四方山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山洪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红孩儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崽崽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书(梅花三弄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金三胖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑石乐队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周黑鸭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章鱼小八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大伯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈浩南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>乔巴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>盖茨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洪七公</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七个小矮人</t>
+    <t>刘文雅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -192,55 +297,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>桃谷六仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外婆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舅妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>义工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四方山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>综合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>山治</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山洪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红孩儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太监</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崽崽</t>
+    <t>爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶稣基督</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -248,75 +313,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>书(梅花三弄)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅花蛇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈浩南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金三胖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑石乐队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红十字会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红武</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周黑鸭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章鱼小八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大伯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘文雅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合</t>
+    <t>梅西</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,15 +397,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -446,7 +444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,7 +479,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -693,16 +691,16 @@
   <dimension ref="A2:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.36328125" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>2</v>
@@ -747,19 +745,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -768,209 +766,209 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="K6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>74</v>
+        <v>29</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="O7" s="1"/>
     </row>

--- a/编码/扑克映射.xlsx
+++ b/编码/扑克映射.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>J</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>独裁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>元首</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,14 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>东条英机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>埃尔多安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>范冰冰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>桃谷六仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外婆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,11 +168,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>义工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四方山</t>
+    <t>山治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红孩儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金三胖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑石乐队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周黑鸭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大伯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘文雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅超风</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,127 +236,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>山治</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山洪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红孩儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太监</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崽崽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书(梅花三弄)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅花蛇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金三胖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑石乐队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红武</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周黑鸭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章鱼小八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大伯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈浩南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘文雅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅超风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>爸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耶稣基督</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红十字会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>梅西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花和尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花无缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄鳝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌索普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝雕弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦克风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红参</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,14 +317,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -376,11 +349,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -397,12 +367,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -444,7 +417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,7 +452,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -691,16 +664,16 @@
   <dimension ref="A2:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>2</v>
@@ -745,20 +718,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
@@ -766,209 +731,205 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>39</v>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="M5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>20</v>
+        <v>67</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="O7" s="1"/>
     </row>

--- a/编码/扑克映射.xlsx
+++ b/编码/扑克映射.xlsx
@@ -248,14 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花和尚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花无缺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄鳝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牧童</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,15 +272,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蛋糕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦克风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花三弄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄山</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +664,7 @@
   <dimension ref="A2:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -804,7 +804,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>46</v>
@@ -851,13 +851,13 @@
         <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>36</v>
@@ -893,31 +893,31 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>27</v>

--- a/编码/扑克映射.xlsx
+++ b/编码/扑克映射.xlsx
@@ -216,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吴军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乔巴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,6 +289,10 @@
   </si>
   <si>
     <t>黄山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑胡子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +328,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -349,12 +357,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -664,7 +675,7 @@
   <dimension ref="A2:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -731,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
@@ -762,8 +773,8 @@
       <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>50</v>
+      <c r="E4" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>34</v>
@@ -772,7 +783,7 @@
         <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
@@ -804,7 +815,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>46</v>
@@ -825,7 +836,7 @@
         <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>25</v>
@@ -851,19 +862,19 @@
         <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>31</v>
@@ -872,16 +883,16 @@
         <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>19</v>
@@ -893,31 +904,31 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>27</v>
@@ -926,7 +937,7 @@
         <v>23</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>43</v>

--- a/编码/扑克映射.xlsx
+++ b/编码/扑克映射.xlsx
@@ -292,7 +292,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黑胡子</t>
+    <t>吴军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,7 +675,7 @@
   <dimension ref="A2:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
